--- a/Data/EC/NIT-8904008699.xlsx
+++ b/Data/EC/NIT-8904008699.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46CD48B2-271C-4298-B894-60D1142A90B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E896E2C3-3218-4D9F-B7A1-7A3252462353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6C7C4ECA-8B55-4D53-87E6-EFEBB52A0295}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C0260740-50CC-4167-BBFF-3BF8461D8354}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="57">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,196 +65,115 @@
     <t>CC</t>
   </si>
   <si>
-    <t>45532396</t>
-  </si>
-  <si>
-    <t>ROSA ESTHER FRANCO PERTUZ</t>
+    <t>19871473</t>
+  </si>
+  <si>
+    <t>GLENN DE JESUS LOZANO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>85202708</t>
+  </si>
+  <si>
+    <t>JHAIR ALBERTO MEDINA ARRIETA</t>
+  </si>
+  <si>
+    <t>73119723</t>
+  </si>
+  <si>
+    <t>HUMBERTO SANCHEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1102875172</t>
+  </si>
+  <si>
+    <t>DANNA MARCELA GOMEZ PELUFO</t>
   </si>
   <si>
     <t>2506</t>
   </si>
   <si>
-    <t>1143390969</t>
-  </si>
-  <si>
-    <t>KARINA MADERA ANGULO</t>
-  </si>
-  <si>
-    <t>19871473</t>
-  </si>
-  <si>
-    <t>GLENN DE JESUS LOZANO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>85202708</t>
-  </si>
-  <si>
-    <t>JHAIR ALBERTO MEDINA ARRIETA</t>
-  </si>
-  <si>
-    <t>73119723</t>
-  </si>
-  <si>
-    <t>HUMBERTO SANCHEZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>1051443918</t>
-  </si>
-  <si>
-    <t>MARIA ALEJANDRA HERNANDEZ MARRUGO</t>
-  </si>
-  <si>
-    <t>1001833588</t>
-  </si>
-  <si>
-    <t>LEOMIS DEL CARMEN LEON PEREZ</t>
-  </si>
-  <si>
-    <t>1129581676</t>
-  </si>
-  <si>
-    <t>ADRIANA MERCEDES MARIN ANGARITA</t>
-  </si>
-  <si>
     <t>2507</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>1102875172</t>
-  </si>
-  <si>
-    <t>DANNA MARCELA GOMEZ PELUFO</t>
-  </si>
-  <si>
-    <t>1001904665</t>
-  </si>
-  <si>
-    <t>ORIANA GOMEZ MEUSBURGER</t>
-  </si>
-  <si>
-    <t>1002245242</t>
-  </si>
-  <si>
-    <t>WILSON DAVID ROMERO WILCHES</t>
-  </si>
-  <si>
-    <t>1007802266</t>
-  </si>
-  <si>
-    <t>FELIPE ISSA BENDECK VARGAS</t>
-  </si>
-  <si>
-    <t>1002199096</t>
-  </si>
-  <si>
-    <t>DANIEL EDUARDO MIRANDA SALAZAR</t>
-  </si>
-  <si>
-    <t>1043649979</t>
-  </si>
-  <si>
-    <t>EDWIN JUNIOR SALAS DE ARCO</t>
-  </si>
-  <si>
-    <t>1045229573</t>
-  </si>
-  <si>
-    <t>YISEL PAOLA SERRANO SARMIENTO</t>
-  </si>
-  <si>
-    <t>1043963794</t>
-  </si>
-  <si>
-    <t>SALOME RODRIGUEZ CARDENAS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -353,7 +272,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -366,9 +287,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -568,23 +487,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,10 +531,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,7 +587,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC152CF-0AAA-1DE8-CAD5-B2A2E912D559}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482DD598-FC93-606C-2F59-4BFE02C05163}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,8 +938,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C09523-D533-41C0-9D75-642862571D7E}">
-  <dimension ref="B2:J122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9E0064-016E-428B-B620-33B418052B65}">
+  <dimension ref="B2:J104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1031,7 +950,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1044,7 +963,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1089,7 +1008,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1121,12 +1040,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7111214</v>
+        <v>4327626</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1137,17 +1056,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F13" s="5">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1174,13 +1093,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1197,10 +1116,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>11388</v>
+        <v>24162</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>2303000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1220,10 +1139,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>11388</v>
+        <v>24640</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>2303000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1240,13 +1159,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>24162</v>
+        <v>100409</v>
       </c>
       <c r="G18" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1257,19 +1176,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>24162</v>
       </c>
       <c r="G19" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1280,19 +1199,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>24162</v>
+        <v>24640</v>
       </c>
       <c r="G20" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1309,13 +1228,13 @@
         <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>24162</v>
+        <v>100409</v>
       </c>
       <c r="G21" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1326,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>24162</v>
       </c>
       <c r="G22" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1349,19 +1268,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>24162</v>
+        <v>24640</v>
       </c>
       <c r="G23" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1378,13 +1297,13 @@
         <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>24162</v>
+        <v>100409</v>
       </c>
       <c r="G24" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1395,19 +1314,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>24162</v>
       </c>
       <c r="G25" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1418,19 +1337,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>24162</v>
+        <v>24640</v>
       </c>
       <c r="G26" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1447,13 +1366,13 @@
         <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>24162</v>
+        <v>100409</v>
       </c>
       <c r="G27" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1464,19 +1383,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>24162</v>
       </c>
       <c r="G28" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1487,19 +1406,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>24162</v>
+        <v>24640</v>
       </c>
       <c r="G29" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1516,13 +1435,13 @@
         <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
-        <v>24162</v>
+        <v>100409</v>
       </c>
       <c r="G30" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1533,19 +1452,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>24162</v>
       </c>
       <c r="G31" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1556,19 +1475,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
-        <v>24162</v>
+        <v>24640</v>
       </c>
       <c r="G32" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1585,13 +1504,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
-        <v>24162</v>
+        <v>100409</v>
       </c>
       <c r="G33" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1602,19 +1521,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
         <v>24162</v>
       </c>
       <c r="G34" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1625,19 +1544,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
-        <v>24162</v>
+        <v>24640</v>
       </c>
       <c r="G35" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1654,13 +1573,13 @@
         <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F36" s="18">
-        <v>24162</v>
+        <v>100409</v>
       </c>
       <c r="G36" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1671,19 +1590,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
         <v>24162</v>
       </c>
       <c r="G37" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1694,19 +1613,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>24162</v>
+        <v>24640</v>
       </c>
       <c r="G38" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1723,13 +1642,13 @@
         <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
-        <v>24162</v>
+        <v>100409</v>
       </c>
       <c r="G39" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1740,19 +1659,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
         <v>24162</v>
       </c>
       <c r="G40" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1763,19 +1682,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
-        <v>24162</v>
+        <v>24640</v>
       </c>
       <c r="G41" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1792,13 +1711,13 @@
         <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
-        <v>24162</v>
+        <v>100409</v>
       </c>
       <c r="G42" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1809,19 +1728,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
         <v>24162</v>
       </c>
       <c r="G43" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1832,19 +1751,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
-        <v>24162</v>
+        <v>24640</v>
       </c>
       <c r="G44" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1855,19 +1774,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>100409</v>
       </c>
       <c r="G45" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1878,19 +1797,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
-        <v>24640</v>
+        <v>24162</v>
       </c>
       <c r="G46" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1901,19 +1820,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
         <v>24640</v>
       </c>
       <c r="G47" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1924,19 +1843,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
-        <v>24640</v>
+        <v>100409</v>
       </c>
       <c r="G48" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1947,19 +1866,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
-        <v>24640</v>
+        <v>24162</v>
       </c>
       <c r="G49" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1970,19 +1889,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
         <v>24640</v>
       </c>
       <c r="G50" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1993,19 +1912,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
-        <v>24640</v>
+        <v>100409</v>
       </c>
       <c r="G51" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2016,19 +1935,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
-        <v>24640</v>
+        <v>24162</v>
       </c>
       <c r="G52" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2039,19 +1958,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F53" s="18">
         <v>24640</v>
       </c>
       <c r="G53" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2062,19 +1981,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F54" s="18">
-        <v>24640</v>
+        <v>100409</v>
       </c>
       <c r="G54" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2085,19 +2004,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
-        <v>24640</v>
+        <v>24162</v>
       </c>
       <c r="G55" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2108,19 +2027,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
         <v>24640</v>
       </c>
       <c r="G56" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2131,19 +2050,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="18">
-        <v>24640</v>
+        <v>100409</v>
       </c>
       <c r="G57" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2154,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F58" s="18">
-        <v>24640</v>
+        <v>24162</v>
       </c>
       <c r="G58" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2177,19 +2096,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F59" s="18">
         <v>24640</v>
       </c>
       <c r="G59" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2200,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F60" s="18">
-        <v>24640</v>
+        <v>100409</v>
       </c>
       <c r="G60" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2223,19 +2142,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
-        <v>24640</v>
+        <v>24162</v>
       </c>
       <c r="G61" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2246,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18">
         <v>24640</v>
       </c>
       <c r="G62" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2269,19 +2188,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F63" s="18">
-        <v>24640</v>
+        <v>100409</v>
       </c>
       <c r="G63" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2292,19 +2211,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18">
-        <v>24640</v>
+        <v>24162</v>
       </c>
       <c r="G64" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2315,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F65" s="18">
         <v>24640</v>
       </c>
       <c r="G65" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2338,19 +2257,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F66" s="18">
-        <v>24640</v>
+        <v>100409</v>
       </c>
       <c r="G66" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2361,19 +2280,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F67" s="18">
-        <v>24640</v>
+        <v>24162</v>
       </c>
       <c r="G67" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2384,19 +2303,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F68" s="18">
         <v>24640</v>
       </c>
       <c r="G68" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2407,19 +2326,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F69" s="18">
-        <v>24640</v>
+        <v>100409</v>
       </c>
       <c r="G69" s="18">
-        <v>2162000</v>
+        <v>6839000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2430,19 +2349,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F70" s="18">
-        <v>24640</v>
+        <v>24162</v>
       </c>
       <c r="G70" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2453,19 +2372,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F71" s="18">
         <v>24640</v>
       </c>
       <c r="G71" s="18">
-        <v>2162000</v>
+        <v>2303000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2476,19 +2395,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F72" s="18">
         <v>100409</v>
       </c>
       <c r="G72" s="18">
-        <v>6422000</v>
+        <v>6839000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2499,19 +2418,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F73" s="18">
-        <v>100409</v>
+        <v>24162</v>
       </c>
       <c r="G73" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2522,19 +2441,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F74" s="18">
-        <v>100409</v>
+        <v>24640</v>
       </c>
       <c r="G74" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2545,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F75" s="18">
         <v>100409</v>
       </c>
       <c r="G75" s="18">
-        <v>6422000</v>
+        <v>6839000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2568,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F76" s="18">
-        <v>100409</v>
+        <v>24162</v>
       </c>
       <c r="G76" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2591,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F77" s="18">
-        <v>100409</v>
+        <v>24640</v>
       </c>
       <c r="G77" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2614,19 +2533,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F78" s="18">
         <v>100409</v>
       </c>
       <c r="G78" s="18">
-        <v>6422000</v>
+        <v>6839000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2637,19 +2556,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F79" s="18">
-        <v>100409</v>
+        <v>24162</v>
       </c>
       <c r="G79" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2660,19 +2579,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F80" s="18">
-        <v>100409</v>
+        <v>24640</v>
       </c>
       <c r="G80" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2683,19 +2602,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F81" s="18">
         <v>100409</v>
       </c>
       <c r="G81" s="18">
-        <v>6422000</v>
+        <v>6839000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2706,19 +2625,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F82" s="18">
-        <v>100409</v>
+        <v>24162</v>
       </c>
       <c r="G82" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2729,19 +2648,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F83" s="18">
-        <v>100409</v>
+        <v>24640</v>
       </c>
       <c r="G83" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2752,19 +2671,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F84" s="18">
         <v>100409</v>
       </c>
       <c r="G84" s="18">
-        <v>6422000</v>
+        <v>6839000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2775,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F85" s="18">
-        <v>100409</v>
+        <v>24162</v>
       </c>
       <c r="G85" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2798,19 +2717,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F86" s="18">
-        <v>100409</v>
+        <v>24640</v>
       </c>
       <c r="G86" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2821,19 +2740,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F87" s="18">
         <v>100409</v>
       </c>
       <c r="G87" s="18">
-        <v>6422000</v>
+        <v>6839000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2844,19 +2763,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F88" s="18">
-        <v>100409</v>
+        <v>24162</v>
       </c>
       <c r="G88" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2867,19 +2786,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F89" s="18">
-        <v>100409</v>
+        <v>24640</v>
       </c>
       <c r="G89" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2890,19 +2809,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F90" s="18">
         <v>100409</v>
       </c>
       <c r="G90" s="18">
-        <v>6422000</v>
+        <v>6839000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2913,19 +2832,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F91" s="18">
-        <v>100409</v>
+        <v>24162</v>
       </c>
       <c r="G91" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2936,19 +2855,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F92" s="18">
-        <v>100409</v>
+        <v>24640</v>
       </c>
       <c r="G92" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2959,19 +2878,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F93" s="18">
         <v>100409</v>
       </c>
       <c r="G93" s="18">
-        <v>6422000</v>
+        <v>6839000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2982,19 +2901,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F94" s="18">
-        <v>100409</v>
+        <v>24162</v>
       </c>
       <c r="G94" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3005,19 +2924,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F95" s="18">
-        <v>100409</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>6422000</v>
+        <v>2303000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3028,19 +2947,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F96" s="18">
         <v>100409</v>
       </c>
       <c r="G96" s="18">
-        <v>6422000</v>
+        <v>6839000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3051,489 +2970,75 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F97" s="18">
-        <v>100409</v>
+        <v>146160</v>
       </c>
       <c r="G97" s="18">
-        <v>6422000</v>
+        <v>3654000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B98" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="16" t="s">
+      <c r="B98" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D98" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F98" s="18">
-        <v>100409</v>
-      </c>
-      <c r="G98" s="18">
-        <v>6422000</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G99" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F101" s="18">
-        <v>473200</v>
-      </c>
-      <c r="G101" s="18">
-        <v>16900000</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="18">
-        <v>473200</v>
-      </c>
-      <c r="G102" s="18">
-        <v>16900000</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F98" s="24">
+        <v>146160</v>
+      </c>
+      <c r="G98" s="24">
+        <v>3654000</v>
+      </c>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="26"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E103" s="16" t="s">
+      <c r="B103" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="H103" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="18">
-        <v>473200</v>
-      </c>
-      <c r="G103" s="18">
-        <v>16900000</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F104" s="18">
-        <v>473200</v>
-      </c>
-      <c r="G104" s="18">
-        <v>16900000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E105" s="16" t="s">
+      <c r="C104" s="32"/>
+      <c r="H104" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F105" s="18">
-        <v>473200</v>
-      </c>
-      <c r="G105" s="18">
-        <v>16900000</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F106" s="18">
-        <v>146160</v>
-      </c>
-      <c r="G106" s="18">
-        <v>3654000</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="18">
-        <v>146160</v>
-      </c>
-      <c r="G107" s="18">
-        <v>3654000</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F108" s="18">
-        <v>146160</v>
-      </c>
-      <c r="G108" s="18">
-        <v>3654000</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F109" s="18">
-        <v>146160</v>
-      </c>
-      <c r="G109" s="18">
-        <v>3654000</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G110" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G111" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G112" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G113" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G114" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G115" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="24">
-        <v>11388</v>
-      </c>
-      <c r="G116" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="26"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C121" s="32"/>
-      <c r="H121" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C122" s="32"/>
-      <c r="H122" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="H103:J103"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8904008699.xlsx
+++ b/Data/EC/NIT-8904008699.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E896E2C3-3218-4D9F-B7A1-7A3252462353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF49FDEE-7B0A-4103-996E-E815BE689DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C0260740-50CC-4167-BBFF-3BF8461D8354}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1FE0A7F-F75C-45CB-A1D3-ED2EF14D6896}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="53">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -162,18 +162,6 @@
   </si>
   <si>
     <t>1809</t>
-  </si>
-  <si>
-    <t>1102875172</t>
-  </si>
-  <si>
-    <t>DANNA MARCELA GOMEZ PELUFO</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2507</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -272,9 +260,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -287,7 +273,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -481,29 +469,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,19 +510,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482DD598-FC93-606C-2F59-4BFE02C05163}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407925C3-77AC-BDD1-61C9-34DBC62463AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,8 +932,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9E0064-016E-428B-B620-33B418052B65}">
-  <dimension ref="B2:J104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A6183D-5299-492F-88EF-5B83C56210E5}">
+  <dimension ref="B2:J102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -961,57 +955,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1021,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8904008699</v>
       </c>
@@ -1040,12 +1034,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>4327626</v>
+        <v>4035306</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1056,17 +1050,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1093,13 +1087,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1112,18 +1106,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>24162</v>
       </c>
-      <c r="G16" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1135,18 +1129,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>24640</v>
       </c>
-      <c r="G17" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1158,18 +1152,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>100409</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>6839000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1181,18 +1175,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>24162</v>
       </c>
-      <c r="G19" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1204,18 +1198,18 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>24640</v>
       </c>
-      <c r="G20" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1227,18 +1221,18 @@
       <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>100409</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>6839000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1250,18 +1244,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>24162</v>
       </c>
-      <c r="G22" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1273,18 +1267,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>24640</v>
       </c>
-      <c r="G23" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="G23" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1296,18 +1290,18 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>100409</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>6839000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1319,18 +1313,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>24162</v>
       </c>
-      <c r="G25" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="G25" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1342,18 +1336,18 @@
       <c r="D26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>24640</v>
       </c>
-      <c r="G26" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G26" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1365,18 +1359,18 @@
       <c r="D27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>100409</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>6839000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1388,18 +1382,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>24162</v>
       </c>
-      <c r="G28" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="G28" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1411,18 +1405,18 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>24640</v>
       </c>
-      <c r="G29" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="G29" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1434,18 +1428,18 @@
       <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>100409</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>6839000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1457,18 +1451,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>24162</v>
       </c>
-      <c r="G31" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="G31" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1480,18 +1474,18 @@
       <c r="D32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>24640</v>
       </c>
-      <c r="G32" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="G32" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1503,18 +1497,18 @@
       <c r="D33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>100409</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>6839000</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1526,18 +1520,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>24162</v>
       </c>
-      <c r="G34" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="G34" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1549,18 +1543,18 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>24640</v>
       </c>
-      <c r="G35" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="G35" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1572,18 +1566,18 @@
       <c r="D36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>100409</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>6839000</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1595,18 +1589,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>24162</v>
       </c>
-      <c r="G37" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="G37" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1618,18 +1612,18 @@
       <c r="D38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>24640</v>
       </c>
-      <c r="G38" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="G38" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1641,18 +1635,18 @@
       <c r="D39" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>100409</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>6839000</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1664,18 +1658,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>24162</v>
       </c>
-      <c r="G40" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="G40" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1687,18 +1681,18 @@
       <c r="D41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>24640</v>
       </c>
-      <c r="G41" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="G41" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1710,18 +1704,18 @@
       <c r="D42" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>100409</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="19">
         <v>6839000</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1733,18 +1727,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>24162</v>
       </c>
-      <c r="G43" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="G43" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1756,18 +1750,18 @@
       <c r="D44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>24640</v>
       </c>
-      <c r="G44" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="G44" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1779,18 +1773,18 @@
       <c r="D45" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>100409</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="19">
         <v>6839000</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1802,18 +1796,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>24162</v>
       </c>
-      <c r="G46" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="G46" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1825,18 +1819,18 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>24640</v>
       </c>
-      <c r="G47" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="G47" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1848,18 +1842,18 @@
       <c r="D48" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>100409</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="19">
         <v>6839000</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1871,18 +1865,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>24162</v>
       </c>
-      <c r="G49" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="G49" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1894,18 +1888,18 @@
       <c r="D50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>24640</v>
       </c>
-      <c r="G50" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="G50" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1917,18 +1911,18 @@
       <c r="D51" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>100409</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="19">
         <v>6839000</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -1940,18 +1934,18 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>24162</v>
       </c>
-      <c r="G52" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="G52" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -1963,18 +1957,18 @@
       <c r="D53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>24640</v>
       </c>
-      <c r="G53" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="G53" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -1986,18 +1980,18 @@
       <c r="D54" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>100409</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="19">
         <v>6839000</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2009,18 +2003,18 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="19">
         <v>24162</v>
       </c>
-      <c r="G55" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="G55" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2032,18 +2026,18 @@
       <c r="D56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="19">
         <v>24640</v>
       </c>
-      <c r="G56" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="G56" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2055,18 +2049,18 @@
       <c r="D57" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>100409</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="19">
         <v>6839000</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2078,18 +2072,18 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="19">
         <v>24162</v>
       </c>
-      <c r="G58" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="G58" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2101,18 +2095,18 @@
       <c r="D59" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="19">
         <v>24640</v>
       </c>
-      <c r="G59" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="G59" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2124,18 +2118,18 @@
       <c r="D60" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="19">
         <v>100409</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="19">
         <v>6839000</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2147,18 +2141,18 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>24162</v>
       </c>
-      <c r="G61" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="G61" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2170,18 +2164,18 @@
       <c r="D62" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="19">
         <v>24640</v>
       </c>
-      <c r="G62" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="G62" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2193,18 +2187,18 @@
       <c r="D63" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>100409</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="19">
         <v>6839000</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2216,18 +2210,18 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="19">
         <v>24162</v>
       </c>
-      <c r="G64" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="G64" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2239,18 +2233,18 @@
       <c r="D65" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="19">
         <v>24640</v>
       </c>
-      <c r="G65" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="G65" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2262,18 +2256,18 @@
       <c r="D66" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="19">
         <v>100409</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="19">
         <v>6839000</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2285,18 +2279,18 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="19">
         <v>24162</v>
       </c>
-      <c r="G67" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="G67" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2308,18 +2302,18 @@
       <c r="D68" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="19">
         <v>24640</v>
       </c>
-      <c r="G68" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="G68" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2331,18 +2325,18 @@
       <c r="D69" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="19">
         <v>100409</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="19">
         <v>6839000</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2354,18 +2348,18 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="19">
         <v>24162</v>
       </c>
-      <c r="G70" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="G70" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2377,18 +2371,18 @@
       <c r="D71" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="19">
         <v>24640</v>
       </c>
-      <c r="G71" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="G71" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2400,18 +2394,18 @@
       <c r="D72" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="19">
         <v>100409</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="19">
         <v>6839000</v>
       </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2423,18 +2417,18 @@
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="19">
         <v>24162</v>
       </c>
-      <c r="G73" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="G73" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2446,18 +2440,18 @@
       <c r="D74" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="19">
         <v>24640</v>
       </c>
-      <c r="G74" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="G74" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2469,18 +2463,18 @@
       <c r="D75" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="19">
         <v>100409</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="19">
         <v>6839000</v>
       </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2492,18 +2486,18 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="19">
         <v>24162</v>
       </c>
-      <c r="G76" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="G76" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2515,18 +2509,18 @@
       <c r="D77" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="19">
         <v>24640</v>
       </c>
-      <c r="G77" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="G77" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2538,18 +2532,18 @@
       <c r="D78" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="19">
         <v>100409</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="19">
         <v>6839000</v>
       </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2561,18 +2555,18 @@
       <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="19">
         <v>24162</v>
       </c>
-      <c r="G79" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="G79" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2584,18 +2578,18 @@
       <c r="D80" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="19">
         <v>24640</v>
       </c>
-      <c r="G80" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="G80" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2607,18 +2601,18 @@
       <c r="D81" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="19">
         <v>100409</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="19">
         <v>6839000</v>
       </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2630,18 +2624,18 @@
       <c r="D82" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="19">
         <v>24162</v>
       </c>
-      <c r="G82" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="G82" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2653,18 +2647,18 @@
       <c r="D83" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F83" s="19">
         <v>24640</v>
       </c>
-      <c r="G83" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="G83" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2676,18 +2670,18 @@
       <c r="D84" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="19">
         <v>100409</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G84" s="19">
         <v>6839000</v>
       </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2699,18 +2693,18 @@
       <c r="D85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F85" s="19">
         <v>24162</v>
       </c>
-      <c r="G85" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="G85" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2722,18 +2716,18 @@
       <c r="D86" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F86" s="19">
         <v>24640</v>
       </c>
-      <c r="G86" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="G86" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2745,18 +2739,18 @@
       <c r="D87" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="19">
         <v>100409</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="19">
         <v>6839000</v>
       </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2768,18 +2762,18 @@
       <c r="D88" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="19">
         <v>24162</v>
       </c>
-      <c r="G88" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="G88" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2791,18 +2785,18 @@
       <c r="D89" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F89" s="19">
         <v>24640</v>
       </c>
-      <c r="G89" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="G89" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2814,18 +2808,18 @@
       <c r="D90" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="19">
         <v>100409</v>
       </c>
-      <c r="G90" s="18">
+      <c r="G90" s="19">
         <v>6839000</v>
       </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -2837,18 +2831,18 @@
       <c r="D91" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="19">
         <v>24162</v>
       </c>
-      <c r="G91" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="G91" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -2860,18 +2854,18 @@
       <c r="D92" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="19">
         <v>24640</v>
       </c>
-      <c r="G92" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="G92" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -2883,18 +2877,18 @@
       <c r="D93" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="19">
         <v>100409</v>
       </c>
-      <c r="G93" s="18">
+      <c r="G93" s="19">
         <v>6839000</v>
       </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -2906,18 +2900,18 @@
       <c r="D94" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F94" s="19">
         <v>24162</v>
       </c>
-      <c r="G94" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="G94" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -2929,116 +2923,70 @@
       <c r="D95" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="19">
         <v>31249</v>
       </c>
-      <c r="G95" s="18">
-        <v>2303000</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="G95" s="19">
+        <v>2303000</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B96" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="16" t="s">
+      <c r="B96" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D96" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="26">
         <v>100409</v>
       </c>
-      <c r="G96" s="18">
+      <c r="G96" s="26">
         <v>6839000</v>
       </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F97" s="18">
-        <v>146160</v>
-      </c>
-      <c r="G97" s="18">
-        <v>3654000</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B98" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F98" s="24">
-        <v>146160</v>
-      </c>
-      <c r="G98" s="24">
-        <v>3654000</v>
-      </c>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="26"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103" s="32"/>
-      <c r="H103" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C104" s="32"/>
-      <c r="H104" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="28"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="34"/>
+      <c r="H101" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" s="34"/>
+      <c r="H102" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H101:J101"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
